--- a/data/trans_camb/P15_4-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_4-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-8,76</t>
+          <t>-10,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,88</t>
+          <t>14,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,81</t>
+          <t>16,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,51</t>
+          <t>-10,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,32</t>
+          <t>15,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-9,16</t>
+          <t>-10,24</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,87</t>
+          <t>13,84</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,64</t>
+          <t>16,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,83; -2,27</t>
+          <t>-18,2; -2,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 21,21</t>
+          <t>3,59; 27,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 21,86</t>
+          <t>4,8; 26,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,16; -5,06</t>
+          <t>-17,45; -3,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,72; 17,45</t>
+          <t>4,79; 21,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,24; 21,91</t>
+          <t>6,38; 24,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -5,18</t>
+          <t>-15,3; -5,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 17,08</t>
+          <t>6,72; 21,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 19,38</t>
+          <t>9,55; 22,86</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-45,71%</t>
+          <t>-48,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>68,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>72,06%</t>
+          <t>78,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-56,05%</t>
+          <t>-51,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>64,79%</t>
+          <t>67,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>78,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-50,95%</t>
+          <t>-50,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>66,01%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>78,48%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,7; -12,03</t>
+          <t>-71,37; -13,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,77; 133,94</t>
+          <t>12,78; 170,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,66; 139,78</t>
+          <t>17,15; 154,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-71,94; -35,14</t>
+          <t>-71,75; -19,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,76; 124,87</t>
+          <t>20,05; 140,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,14; 151,57</t>
+          <t>24,11; 155,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-64,69; -31,03</t>
+          <t>-64,69; -28,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,18; 107,49</t>
+          <t>27,94; 118,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>43,8; 120,0</t>
+          <t>38,69; 131,13</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>18,48</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,11</t>
+          <t>34,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,07</t>
+          <t>25,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,14</t>
+          <t>24,31</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,98</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>22,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,82</t>
+          <t>29,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,73; 1,52</t>
+          <t>-13,01; 2,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,28; 26,89</t>
+          <t>7,72; 28,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,91; 37,91</t>
+          <t>24,18; 46,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 0,05</t>
+          <t>-8,78; 1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 31,22</t>
+          <t>17,94; 34,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 33,18</t>
+          <t>16,17; 32,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,67; -0,61</t>
+          <t>-9,13; 0,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,08; 26,82</t>
+          <t>15,75; 29,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 33,46</t>
+          <t>22,72; 37,05</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,34%</t>
+          <t>-37,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>131,94%</t>
+          <t>133,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>207,87%</t>
+          <t>256,4%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-49,95%</t>
+          <t>-42,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>321,91%</t>
+          <t>325,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>349,56%</t>
+          <t>304,03%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-37,94%</t>
+          <t>-39,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>204,81%</t>
+          <t>210,72%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>264,97%</t>
+          <t>279,47%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-61,22; 15,3</t>
+          <t>-71,96; 33,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,57; 242,99</t>
+          <t>41,07; 297,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>112,51; 346,86</t>
+          <t>130,62; 509,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-76,41; 9,88</t>
+          <t>-79,54; 51,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>159,25; 591,91</t>
+          <t>153,78; 684,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>179,73; 619,8</t>
+          <t>138,86; 632,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,46; -5,73</t>
+          <t>-68,4; 7,73</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>129,02; 308,56</t>
+          <t>110,74; 359,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>172,54; 386,41</t>
+          <t>163,46; 462,64</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,7</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>27,37</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>18,96</t>
+          <t>13,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,08</t>
+          <t>22,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,69</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,72</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,72</t>
+          <t>13,4</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,33; 3,97</t>
+          <t>-33,83; 8,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 34,33</t>
+          <t>-21,86; 29,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,32; 45,44</t>
+          <t>-22,36; 34,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 9,61</t>
+          <t>-17,96; 8,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,98; 33,2</t>
+          <t>-4,28; 30,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,54; 41,66</t>
+          <t>2,41; 39,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 4,14</t>
+          <t>-21,54; 2,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,29; 29,46</t>
+          <t>-8,07; 23,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,18; 38,75</t>
+          <t>-3,87; 30,22</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-49,68%</t>
+          <t>-58,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>100,71%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>165,05%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,51%</t>
+          <t>-37,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>192,72%</t>
+          <t>101,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>285,33%</t>
+          <t>174,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-35,02%</t>
+          <t>-50,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>132,22%</t>
+          <t>42,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>206,89%</t>
+          <t>75,15%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-89,73; 51,35</t>
+          <t>-96,1; 100,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 322,46</t>
+          <t>-68,88; 279,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,21; 440,54</t>
+          <t>-68,92; 331,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,72; 215,11</t>
+          <t>-88,82; 251,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,36; 689,21</t>
+          <t>-28,22; 547,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,87; 919,78</t>
+          <t>3,76; 728,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,94; 47,35</t>
+          <t>-84,89; 30,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,72; 316,36</t>
+          <t>-34,94; 245,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,73; 414,39</t>
+          <t>-18,0; 305,42</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-8,48</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,55</t>
+          <t>14,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21,6</t>
+          <t>22,5</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,35</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>18,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,91</t>
+          <t>19,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,63</t>
+          <t>-7,7</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,35</t>
+          <t>21,18</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,14; -2,77</t>
+          <t>-13,74; -2,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,78; 21,22</t>
+          <t>7,24; 23,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,57; 27,95</t>
+          <t>14,47; 29,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -3,29</t>
+          <t>-11,15; -2,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,28; 21,53</t>
+          <t>12,74; 24,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,07; 25,97</t>
+          <t>14,11; 25,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -4,0</t>
+          <t>-11,13; -4,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,93; 20,45</t>
+          <t>11,83; 21,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,32; 24,91</t>
+          <t>16,47; 25,73</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-41,49%</t>
+          <t>-46,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>128,39%</t>
+          <t>124,15%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-50,88%</t>
+          <t>-48,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>135,95%</t>
+          <t>127,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>167,52%</t>
+          <t>136,75%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-45,68%</t>
+          <t>-47,67%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>112,59%</t>
+          <t>102,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147,09%</t>
+          <t>131,11%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,28; -17,97</t>
+          <t>-64,8; -17,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>56,99; 142,12</t>
+          <t>33,54; 153,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,57; 182,91</t>
+          <t>66,93; 196,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-66,28; -29,13</t>
+          <t>-66,72; -22,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,05; 202,01</t>
+          <t>69,49; 197,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>114,02; 244,76</t>
+          <t>81,21; 218,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-57,79; -29,39</t>
+          <t>-60,96; -31,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,81; 156,29</t>
+          <t>65,49; 151,68</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>108,94; 191,01</t>
+          <t>89,53; 182,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
